--- a/Dictation/Dictation/words.xlsx
+++ b/Dictation/Dictation/words.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C5BEAD-F268-46EC-AFB0-E49CF99E3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AFEDFB-4685-4063-B335-83D6281D7A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="6945" windowWidth="41475" windowHeight="23940" xr2:uid="{4A598DC0-95C8-45B0-9636-03399833CE62}"/>
+    <workbookView xWindow="7500" yWindow="4605" windowWidth="43500" windowHeight="23940" xr2:uid="{4A598DC0-95C8-45B0-9636-03399833CE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="2279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="2798">
   <si>
     <t>Attribute:Word</t>
   </si>
@@ -6871,6 +6872,1564 @@
   </si>
   <si>
     <t>XML</t>
+  </si>
+  <si>
+    <t>after all 毕竟，终究</t>
+  </si>
+  <si>
+    <t>because of 因为，由于</t>
+  </si>
+  <si>
+    <t>as for 至于</t>
+  </si>
+  <si>
+    <t>by mistake 错误地</t>
+  </si>
+  <si>
+    <t>by accident 偶然地，意外地</t>
+  </si>
+  <si>
+    <t>for example 例如</t>
+  </si>
+  <si>
+    <t>for instance 例如</t>
+  </si>
+  <si>
+    <t>instead of 代替，而不是</t>
+  </si>
+  <si>
+    <t>thanks to 幸亏，由于，因为</t>
+  </si>
+  <si>
+    <t>to be honest 老实说，说实在的</t>
+  </si>
+  <si>
+    <t>to start with 首先</t>
+  </si>
+  <si>
+    <t>so that 以便，结果，目的是</t>
+  </si>
+  <si>
+    <t>teach oneself 自学</t>
+  </si>
+  <si>
+    <t>enjoy oneself 玩得开心</t>
+  </si>
+  <si>
+    <t>by oneself 独自</t>
+  </si>
+  <si>
+    <t>hurt oneself 伤害自己</t>
+  </si>
+  <si>
+    <t>by the way 顺便说，顺便问一下</t>
+  </si>
+  <si>
+    <t>in the way 碍事的，挡道的</t>
+  </si>
+  <si>
+    <t>on one’s way 在去—的路上</t>
+  </si>
+  <si>
+    <t>in this way 这样</t>
+  </si>
+  <si>
+    <t>in some ways 在某种程度上，在某些方面</t>
+  </si>
+  <si>
+    <t>the way to 去某地的路</t>
+  </si>
+  <si>
+    <t>pay attention to 注意</t>
+  </si>
+  <si>
+    <t>look forward to 期盼，期待</t>
+  </si>
+  <si>
+    <t>hold on to 继续，坚持</t>
+  </si>
+  <si>
+    <t>be/get used to 习惯于</t>
+  </si>
+  <si>
+    <t>a few 一些， 很少</t>
+  </si>
+  <si>
+    <t>a little 稍微，一点儿</t>
+  </si>
+  <si>
+    <t>a bit 一点儿</t>
+  </si>
+  <si>
+    <t>all the time 始终，一直</t>
+  </si>
+  <si>
+    <t>all year round 一年到头</t>
+  </si>
+  <si>
+    <t>all over 遍及，整个</t>
+  </si>
+  <si>
+    <t>around the world 全世界</t>
+  </si>
+  <si>
+    <t>be afraid to 害怕做某事</t>
+  </si>
+  <si>
+    <t>意见一致</t>
+  </si>
+  <si>
+    <t>be willing to 愿意做某事</t>
+  </si>
+  <si>
+    <t>just now 刚才</t>
+  </si>
+  <si>
+    <t>break down 停止运转，出故障</t>
+  </si>
+  <si>
+    <t>break off 突然中止，中断</t>
+  </si>
+  <si>
+    <t>break the rule 违反规则</t>
+  </si>
+  <si>
+    <t>break out 爆发</t>
+  </si>
+  <si>
+    <t>be able to 能，会</t>
+  </si>
+  <si>
+    <t>according to 根据，按照，据......所说</t>
+  </si>
+  <si>
+    <t>to one’s surprised 令某人惊奇的是......</t>
+  </si>
+  <si>
+    <t>thanks for 为......而感谢......</t>
+  </si>
+  <si>
+    <t>both...and 两个都，既......又......</t>
+  </si>
+  <si>
+    <t>either...or 或者......或者......</t>
+  </si>
+  <si>
+    <t>neither...nor 既不......也不......</t>
+  </si>
+  <si>
+    <t>not only...but also 不但......而且......</t>
+  </si>
+  <si>
+    <t>not...until 直到......才......</t>
+  </si>
+  <si>
+    <t>so...that 如此......以至于......</t>
+  </si>
+  <si>
+    <t>as soon as 一......就......</t>
+  </si>
+  <si>
+    <t>even though 即使，尽管</t>
+  </si>
+  <si>
+    <t>would rather...than... 宁愿......而不......</t>
+  </si>
+  <si>
+    <t>what if 如果......将会怎么样</t>
+  </si>
+  <si>
+    <t>too...to 太......而不能</t>
+  </si>
+  <si>
+    <t>help oneself to 随便吃......</t>
+  </si>
+  <si>
+    <t>learn...by oneself 自学</t>
+  </si>
+  <si>
+    <t>make a contribution to 为......做贡献</t>
+  </si>
+  <si>
+    <t>prefer...to... 与......相比更喜欢......</t>
+  </si>
+  <si>
+    <t>across from 在......对面</t>
+  </si>
+  <si>
+    <t>as...as possible 尽可能</t>
+  </si>
+  <si>
+    <t>as...as 和......一样</t>
+  </si>
+  <si>
+    <t>add...to 把......加到—上</t>
+  </si>
+  <si>
+    <t>be in agreement 与...意见一致</t>
+  </si>
+  <si>
+    <t>be supposed to 被期望或被要求......</t>
+  </si>
+  <si>
+    <t>between...and 在......之间</t>
+  </si>
+  <si>
+    <t>belong to 属于</t>
+  </si>
+  <si>
+    <t>cut in line 插队</t>
+  </si>
+  <si>
+    <t>can’t stop doing 情不自禁做某事</t>
+  </si>
+  <si>
+    <t>next to 紧接着，相邻</t>
+  </si>
+  <si>
+    <t>day off 休息日，不工作</t>
+  </si>
+  <si>
+    <t>do chores 做家务</t>
+  </si>
+  <si>
+    <t>do the dishes 洗盘子</t>
+  </si>
+  <si>
+    <t>do the laundry 洗衣服</t>
+  </si>
+  <si>
+    <t>do some reading 看书</t>
+  </si>
+  <si>
+    <t>do homework 做作业</t>
+  </si>
+  <si>
+    <t>dream of/about 梦想，向往</t>
+  </si>
+  <si>
+    <t>drop by 顺便或偶然拜访</t>
+  </si>
+  <si>
+    <t>divide...into 把......分成......</t>
+  </si>
+  <si>
+    <t>each other 互相，彼此</t>
+  </si>
+  <si>
+    <t>excuse me 请原谅</t>
+  </si>
+  <si>
+    <t>go by (指时间) 过去，消逝</t>
+  </si>
+  <si>
+    <t>knock into 与......相撞</t>
+  </si>
+  <si>
+    <t>feel like doing 想要做某事</t>
+  </si>
+  <si>
+    <t>family name 姓氏</t>
+  </si>
+  <si>
+    <t>first name 名字</t>
+  </si>
+  <si>
+    <t>fall asleep 入睡</t>
+  </si>
+  <si>
+    <t>fall in love with 爱上......</t>
+  </si>
+  <si>
+    <t>fall into 落入，陷入</t>
+  </si>
+  <si>
+    <t>fall ill 病倒，患病</t>
+  </si>
+  <si>
+    <t>first of all 首先</t>
+  </si>
+  <si>
+    <t>fill...with 用......装满......</t>
+  </si>
+  <si>
+    <t>go to sleep 入睡</t>
+  </si>
+  <si>
+    <t>go home 回家</t>
+  </si>
+  <si>
+    <t>go to school 去上学</t>
+  </si>
+  <si>
+    <t>go to a movie 去看电影</t>
+  </si>
+  <si>
+    <t>go to bed 去睡觉</t>
+  </si>
+  <si>
+    <t>go to work 去上班</t>
+  </si>
+  <si>
+    <t>go shopping 去购物</t>
+  </si>
+  <si>
+    <t>go hiking 去远足</t>
+  </si>
+  <si>
+    <t>have a headache 头痛</t>
+  </si>
+  <si>
+    <t>have a look 看一看</t>
+  </si>
+  <si>
+    <t>have a talk 谈一谈</t>
+  </si>
+  <si>
+    <t>have a cold 感冒</t>
+  </si>
+  <si>
+    <t>have a great time 玩得开心</t>
+  </si>
+  <si>
+    <t>have fun 玩得开心</t>
+  </si>
+  <si>
+    <t>have/get sth done 请别人做某事</t>
+  </si>
+  <si>
+    <t>have to 不得不</t>
+  </si>
+  <si>
+    <t>hardly ever 几乎不</t>
+  </si>
+  <si>
+    <t>have trouble in doing sth 做某事有困难</t>
+  </si>
+  <si>
+    <t>how/what about...? ......怎么样?</t>
+  </si>
+  <si>
+    <t>had better do sth 最好做某事</t>
+  </si>
+  <si>
+    <t>hear of 听说</t>
+  </si>
+  <si>
+    <t>hear about 听说关于......</t>
+  </si>
+  <si>
+    <t>hear from 收到某人的来信</t>
+  </si>
+  <si>
+    <t>here you are 给你</t>
+  </si>
+  <si>
+    <t>happy birthday 生日快乐</t>
+  </si>
+  <si>
+    <t>host family 寄宿家庭</t>
+  </si>
+  <si>
+    <t>how far 多远</t>
+  </si>
+  <si>
+    <t>how long 多长时间</t>
+  </si>
+  <si>
+    <t>how soon 多久以后</t>
+  </si>
+  <si>
+    <t>how often 多久一次</t>
+  </si>
+  <si>
+    <t>how many 多少</t>
+  </si>
+  <si>
+    <t>how much 多少钱，多少</t>
+  </si>
+  <si>
+    <t>how old 多大</t>
+  </si>
+  <si>
+    <t>it doesn’t matter 没关系</t>
+  </si>
+  <si>
+    <t>keep healthy/fit 保持健康</t>
+  </si>
+  <si>
+    <t>later on 以后，过后</t>
+  </si>
+  <si>
+    <t>learn from 向---学习</t>
+  </si>
+  <si>
+    <t>let sb down 使某人失望或沮丧</t>
+  </si>
+  <si>
+    <t>from time to time 偶尔，不时</t>
+  </si>
+  <si>
+    <t>leave for 动身去某地</t>
+  </si>
+  <si>
+    <t>less than 不到，少于</t>
+  </si>
+  <si>
+    <t>listen to 听......</t>
+  </si>
+  <si>
+    <t>next to 紧接着，靠近</t>
+  </si>
+  <si>
+    <t>not...any more 不再，再也不</t>
+  </si>
+  <si>
+    <t>no talking 禁止谈话</t>
+  </si>
+  <si>
+    <t>more than 多于，超过</t>
+  </si>
+  <si>
+    <t>not at all 一点也不</t>
+  </si>
+  <si>
+    <t>no longer 不再，已不</t>
+  </si>
+  <si>
+    <t>not...in the slightest 一点也不，根本不</t>
+  </si>
+  <si>
+    <t>out of style 过时</t>
+  </si>
+  <si>
+    <t>play football 踢足球</t>
+  </si>
+  <si>
+    <t>of course 当然</t>
+  </si>
+  <si>
+    <t>places of interest 名胜古迹</t>
+  </si>
+  <si>
+    <t>pretty well 相当好</t>
+  </si>
+  <si>
+    <t>watch TV 看电视</t>
+  </si>
+  <si>
+    <t>play sports 做运动</t>
+  </si>
+  <si>
+    <t>phone number 电话号码</t>
+  </si>
+  <si>
+    <t>prevent sb from doing sth 阻止某人做某事</t>
+  </si>
+  <si>
+    <t>such as 例如</t>
+  </si>
+  <si>
+    <t>quite a few 相当多，不少</t>
+  </si>
+  <si>
+    <t>shake hands 握手</t>
+  </si>
+  <si>
+    <t>rather than 而不，非</t>
+  </si>
+  <si>
+    <t>right away/now 立刻，马上</t>
+  </si>
+  <si>
+    <t>run away 逃走</t>
+  </si>
+  <si>
+    <t>be in agreement 意见一致</t>
+  </si>
+  <si>
+    <t>regard...as... 把......看作......</t>
+  </si>
+  <si>
+    <t>ride a bike 骑自行车</t>
+  </si>
+  <si>
+    <t>sleep late 睡过头，起得晚</t>
+  </si>
+  <si>
+    <t>Why not...? 为什么不......?</t>
+  </si>
+  <si>
+    <t>so far 到目前为止</t>
+  </si>
+  <si>
+    <t>suit sb fine 合某人的意，对某人合适</t>
+  </si>
+  <si>
+    <t>talk show 访谈节目</t>
+  </si>
+  <si>
+    <t>translate...into 把......翻译成......</t>
+  </si>
+  <si>
+    <t>try one’s best 尽力做......</t>
+  </si>
+  <si>
+    <t>used to 过去常常</t>
+  </si>
+  <si>
+    <t>stressed out 紧张的</t>
+  </si>
+  <si>
+    <t>the same as 与...一样</t>
+  </si>
+  <si>
+    <t>three quarters 四分之三</t>
+  </si>
+  <si>
+    <t>the day after tomorrow 后天</t>
+  </si>
+  <si>
+    <t>wait in line 排队等候</t>
+  </si>
+  <si>
+    <t>what about...? ......怎么样?</t>
+  </si>
+  <si>
+    <t>What’s the matter? 怎么了?</t>
+  </si>
+  <si>
+    <t>What’s the problem? 怎么了?</t>
+  </si>
+  <si>
+    <t>What’s wrong? 怎么了?</t>
+  </si>
+  <si>
+    <t>have two days off 休息两天</t>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>because of</t>
+  </si>
+  <si>
+    <t>as for</t>
+  </si>
+  <si>
+    <t>by mistake</t>
+  </si>
+  <si>
+    <t>by accident</t>
+  </si>
+  <si>
+    <t>for example</t>
+  </si>
+  <si>
+    <t>for instance</t>
+  </si>
+  <si>
+    <t>instead of</t>
+  </si>
+  <si>
+    <t>thanks to</t>
+  </si>
+  <si>
+    <t>thanks for</t>
+  </si>
+  <si>
+    <t>both...and</t>
+  </si>
+  <si>
+    <t>either...or</t>
+  </si>
+  <si>
+    <t>neither...nor</t>
+  </si>
+  <si>
+    <t>not...until</t>
+  </si>
+  <si>
+    <t>so...that</t>
+  </si>
+  <si>
+    <t>even though</t>
+  </si>
+  <si>
+    <t>what if</t>
+  </si>
+  <si>
+    <t>too...to</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>teach oneself</t>
+  </si>
+  <si>
+    <t>enjoy oneself</t>
+  </si>
+  <si>
+    <t>by oneself</t>
+  </si>
+  <si>
+    <t>hurt oneself</t>
+  </si>
+  <si>
+    <t>to be honest</t>
+  </si>
+  <si>
+    <t>to one's surprised</t>
+  </si>
+  <si>
+    <t>to start with</t>
+  </si>
+  <si>
+    <t>not only...but also</t>
+  </si>
+  <si>
+    <t>as soon as</t>
+  </si>
+  <si>
+    <t>would rather...than...</t>
+  </si>
+  <si>
+    <t>help oneself to</t>
+  </si>
+  <si>
+    <t>learn...by oneself</t>
+  </si>
+  <si>
+    <t>by the way</t>
+  </si>
+  <si>
+    <t>in the way</t>
+  </si>
+  <si>
+    <t>on one's way</t>
+  </si>
+  <si>
+    <t>in this way</t>
+  </si>
+  <si>
+    <t>in some ways</t>
+  </si>
+  <si>
+    <t>the way to</t>
+  </si>
+  <si>
+    <t>pay attention to</t>
+  </si>
+  <si>
+    <t>look forward to</t>
+  </si>
+  <si>
+    <t>hold on to</t>
+  </si>
+  <si>
+    <t>be/get used to</t>
+  </si>
+  <si>
+    <t>make a contribution to</t>
+  </si>
+  <si>
+    <t>prefer...to...</t>
+  </si>
+  <si>
+    <t>a few</t>
+  </si>
+  <si>
+    <t>a little</t>
+  </si>
+  <si>
+    <t>a bit</t>
+  </si>
+  <si>
+    <t>across from</t>
+  </si>
+  <si>
+    <t>all the time</t>
+  </si>
+  <si>
+    <t>all year round</t>
+  </si>
+  <si>
+    <t>all over</t>
+  </si>
+  <si>
+    <t>around the world</t>
+  </si>
+  <si>
+    <t>as...as possible</t>
+  </si>
+  <si>
+    <t>as...as</t>
+  </si>
+  <si>
+    <t>add...to</t>
+  </si>
+  <si>
+    <t>be afraid to</t>
+  </si>
+  <si>
+    <t>be in agreement</t>
+  </si>
+  <si>
+    <t>be willing to</t>
+  </si>
+  <si>
+    <t>just now</t>
+  </si>
+  <si>
+    <t>break down</t>
+  </si>
+  <si>
+    <t>break off</t>
+  </si>
+  <si>
+    <t>break the rule</t>
+  </si>
+  <si>
+    <t>break out</t>
+  </si>
+  <si>
+    <t>be able to</t>
+  </si>
+  <si>
+    <t>be supposed to</t>
+  </si>
+  <si>
+    <t>between...and</t>
+  </si>
+  <si>
+    <t>belong to</t>
+  </si>
+  <si>
+    <t>cut in line</t>
+  </si>
+  <si>
+    <t>can't stop doing</t>
+  </si>
+  <si>
+    <t>next to</t>
+  </si>
+  <si>
+    <t>day off</t>
+  </si>
+  <si>
+    <t>do chores</t>
+  </si>
+  <si>
+    <t>do the dishes</t>
+  </si>
+  <si>
+    <t>do the laundry</t>
+  </si>
+  <si>
+    <t>do some reading</t>
+  </si>
+  <si>
+    <t>do homework</t>
+  </si>
+  <si>
+    <t>dream of/about</t>
+  </si>
+  <si>
+    <t>drop by</t>
+  </si>
+  <si>
+    <t>divide...into</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>excuse me</t>
+  </si>
+  <si>
+    <t>go by</t>
+  </si>
+  <si>
+    <t>knock into</t>
+  </si>
+  <si>
+    <t>feel like doing</t>
+  </si>
+  <si>
+    <t>family name</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>fall asleep</t>
+  </si>
+  <si>
+    <t>fall in love with</t>
+  </si>
+  <si>
+    <t>fall into</t>
+  </si>
+  <si>
+    <t>fall ill</t>
+  </si>
+  <si>
+    <t>first of all</t>
+  </si>
+  <si>
+    <t>fill...with</t>
+  </si>
+  <si>
+    <t>go to sleep</t>
+  </si>
+  <si>
+    <t>go home</t>
+  </si>
+  <si>
+    <t>go to school</t>
+  </si>
+  <si>
+    <t>go to a movie</t>
+  </si>
+  <si>
+    <t>go to bed</t>
+  </si>
+  <si>
+    <t>go to work</t>
+  </si>
+  <si>
+    <t>go shopping</t>
+  </si>
+  <si>
+    <t>go hiking</t>
+  </si>
+  <si>
+    <t>have a headache</t>
+  </si>
+  <si>
+    <t>have a look</t>
+  </si>
+  <si>
+    <t>have a talk</t>
+  </si>
+  <si>
+    <t>have a cold</t>
+  </si>
+  <si>
+    <t>have a great time</t>
+  </si>
+  <si>
+    <t>have fun</t>
+  </si>
+  <si>
+    <t>have/get sth done</t>
+  </si>
+  <si>
+    <t>have to</t>
+  </si>
+  <si>
+    <t>hardly ever</t>
+  </si>
+  <si>
+    <t>have trouble in doing sth</t>
+  </si>
+  <si>
+    <t>how/what about...? ......</t>
+  </si>
+  <si>
+    <t>had better do sth</t>
+  </si>
+  <si>
+    <t>hear of</t>
+  </si>
+  <si>
+    <t>hear about</t>
+  </si>
+  <si>
+    <t>hear from</t>
+  </si>
+  <si>
+    <t>here you are</t>
+  </si>
+  <si>
+    <t>happy birthday</t>
+  </si>
+  <si>
+    <t>host family</t>
+  </si>
+  <si>
+    <t>how far</t>
+  </si>
+  <si>
+    <t>how long</t>
+  </si>
+  <si>
+    <t>how soon</t>
+  </si>
+  <si>
+    <t>how often</t>
+  </si>
+  <si>
+    <t>how many</t>
+  </si>
+  <si>
+    <t>how much</t>
+  </si>
+  <si>
+    <t>how old</t>
+  </si>
+  <si>
+    <t>it doesn't matter</t>
+  </si>
+  <si>
+    <t>keep healthy/fit</t>
+  </si>
+  <si>
+    <t>later on</t>
+  </si>
+  <si>
+    <t>learn from</t>
+  </si>
+  <si>
+    <t>let sb down</t>
+  </si>
+  <si>
+    <t>from time to time</t>
+  </si>
+  <si>
+    <t>leave for</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>listen to</t>
+  </si>
+  <si>
+    <t>not...any more</t>
+  </si>
+  <si>
+    <t>no talking</t>
+  </si>
+  <si>
+    <t>more than</t>
+  </si>
+  <si>
+    <t>not at all</t>
+  </si>
+  <si>
+    <t>no longer</t>
+  </si>
+  <si>
+    <t>not...in the slightest</t>
+  </si>
+  <si>
+    <t>out of style</t>
+  </si>
+  <si>
+    <t>play football</t>
+  </si>
+  <si>
+    <t>of course</t>
+  </si>
+  <si>
+    <t>places of interest</t>
+  </si>
+  <si>
+    <t>pretty well</t>
+  </si>
+  <si>
+    <t>watch TV</t>
+  </si>
+  <si>
+    <t>play sports</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>prevent sb from doing sth</t>
+  </si>
+  <si>
+    <t>such as</t>
+  </si>
+  <si>
+    <t>quite a few</t>
+  </si>
+  <si>
+    <t>shake hands</t>
+  </si>
+  <si>
+    <t>rather than</t>
+  </si>
+  <si>
+    <t>right away/now</t>
+  </si>
+  <si>
+    <t>run away</t>
+  </si>
+  <si>
+    <t>regard...as...</t>
+  </si>
+  <si>
+    <t>ride a bike</t>
+  </si>
+  <si>
+    <t>sleep late</t>
+  </si>
+  <si>
+    <t>Why not...?</t>
+  </si>
+  <si>
+    <t>so far</t>
+  </si>
+  <si>
+    <t>suit sb fine</t>
+  </si>
+  <si>
+    <t>talk show</t>
+  </si>
+  <si>
+    <t>translate...into</t>
+  </si>
+  <si>
+    <t>try one's best</t>
+  </si>
+  <si>
+    <t>used to</t>
+  </si>
+  <si>
+    <t>stressed out</t>
+  </si>
+  <si>
+    <t>the same as</t>
+  </si>
+  <si>
+    <t>three quarters</t>
+  </si>
+  <si>
+    <t>the day after tomorrow</t>
+  </si>
+  <si>
+    <t>wait in line</t>
+  </si>
+  <si>
+    <t>what about...? ......</t>
+  </si>
+  <si>
+    <t>What's the matter?</t>
+  </si>
+  <si>
+    <t>What's the problem?</t>
+  </si>
+  <si>
+    <t>What's wrong?</t>
+  </si>
+  <si>
+    <t>have two days off</t>
+  </si>
+  <si>
+    <t>after all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕竟，终究</t>
+  </si>
+  <si>
+    <t>根据，按照，据......所说</t>
+  </si>
+  <si>
+    <t>因为，由于</t>
+  </si>
+  <si>
+    <t>至于</t>
+  </si>
+  <si>
+    <t>错误地</t>
+  </si>
+  <si>
+    <t>偶然地，意外地</t>
+  </si>
+  <si>
+    <t>例如</t>
+  </si>
+  <si>
+    <t>代替，而不是</t>
+  </si>
+  <si>
+    <t>幸亏，由于，因为</t>
+  </si>
+  <si>
+    <t>老实说，说实在的</t>
+  </si>
+  <si>
+    <t>令某人惊奇的是......</t>
+  </si>
+  <si>
+    <t>首先</t>
+  </si>
+  <si>
+    <t>为......而感谢......</t>
+  </si>
+  <si>
+    <t>两个都，既......又......</t>
+  </si>
+  <si>
+    <t>或者......或者......</t>
+  </si>
+  <si>
+    <t>既不......也不......</t>
+  </si>
+  <si>
+    <t>不但......而且......</t>
+  </si>
+  <si>
+    <t>直到......才......</t>
+  </si>
+  <si>
+    <t>如此......以至于......</t>
+  </si>
+  <si>
+    <t>一......就......</t>
+  </si>
+  <si>
+    <t>即使，尽管</t>
+  </si>
+  <si>
+    <t>宁愿......而不......</t>
+  </si>
+  <si>
+    <t>如果......将会怎么样</t>
+  </si>
+  <si>
+    <t>太......而不能</t>
+  </si>
+  <si>
+    <t>以便，结果，目的是</t>
+  </si>
+  <si>
+    <t>自学</t>
+  </si>
+  <si>
+    <t>玩得开心</t>
+  </si>
+  <si>
+    <t>独自</t>
+  </si>
+  <si>
+    <t>随便吃......</t>
+  </si>
+  <si>
+    <t>伤害自己</t>
+  </si>
+  <si>
+    <t>顺便说，顺便问一下</t>
+  </si>
+  <si>
+    <t>碍事的，挡道的</t>
+  </si>
+  <si>
+    <t>在去—的路上</t>
+  </si>
+  <si>
+    <t>这样</t>
+  </si>
+  <si>
+    <t>在某种程度上，在某些方面</t>
+  </si>
+  <si>
+    <t>去某地的路</t>
+  </si>
+  <si>
+    <t>注意</t>
+  </si>
+  <si>
+    <t>期盼，期待</t>
+  </si>
+  <si>
+    <t>继续，坚持</t>
+  </si>
+  <si>
+    <t>习惯于</t>
+  </si>
+  <si>
+    <t>为......做贡献</t>
+  </si>
+  <si>
+    <t>与......相比更喜欢......</t>
+  </si>
+  <si>
+    <t>一些， 很少</t>
+  </si>
+  <si>
+    <t>稍微，一点儿</t>
+  </si>
+  <si>
+    <t>一点儿</t>
+  </si>
+  <si>
+    <t>在......对面</t>
+  </si>
+  <si>
+    <t>始终，一直</t>
+  </si>
+  <si>
+    <t>一年到头</t>
+  </si>
+  <si>
+    <t>遍及，整个</t>
+  </si>
+  <si>
+    <t>全世界</t>
+  </si>
+  <si>
+    <t>尽可能</t>
+  </si>
+  <si>
+    <t>和......一样</t>
+  </si>
+  <si>
+    <t>把......加到—上</t>
+  </si>
+  <si>
+    <t>害怕做某事</t>
+  </si>
+  <si>
+    <t>与...意见一致</t>
+  </si>
+  <si>
+    <t>愿意做某事</t>
+  </si>
+  <si>
+    <t>刚才</t>
+  </si>
+  <si>
+    <t>停止运转，出故障</t>
+  </si>
+  <si>
+    <t>突然中止，中断</t>
+  </si>
+  <si>
+    <t>违反规则</t>
+  </si>
+  <si>
+    <t>爆发</t>
+  </si>
+  <si>
+    <t>能，会</t>
+  </si>
+  <si>
+    <t>被期望或被要求......</t>
+  </si>
+  <si>
+    <t>在......之间</t>
+  </si>
+  <si>
+    <t>属于</t>
+  </si>
+  <si>
+    <t>插队</t>
+  </si>
+  <si>
+    <t>情不自禁做某事</t>
+  </si>
+  <si>
+    <t>紧接着，相邻</t>
+  </si>
+  <si>
+    <t>休息日，不工作</t>
+  </si>
+  <si>
+    <t>做家务</t>
+  </si>
+  <si>
+    <t>洗盘子</t>
+  </si>
+  <si>
+    <t>洗衣服</t>
+  </si>
+  <si>
+    <t>看书</t>
+  </si>
+  <si>
+    <t>做作业</t>
+  </si>
+  <si>
+    <t>梦想，向往</t>
+  </si>
+  <si>
+    <t>顺便或偶然拜访</t>
+  </si>
+  <si>
+    <t>把......分成......</t>
+  </si>
+  <si>
+    <t>互相，彼此</t>
+  </si>
+  <si>
+    <t>请原谅</t>
+  </si>
+  <si>
+    <t>（指时间） 过去，消逝</t>
+  </si>
+  <si>
+    <t>与......相撞</t>
+  </si>
+  <si>
+    <t>想要做某事</t>
+  </si>
+  <si>
+    <t>姓氏</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>入睡</t>
+  </si>
+  <si>
+    <t>爱上......</t>
+  </si>
+  <si>
+    <t>落入，陷入</t>
+  </si>
+  <si>
+    <t>病倒，患病</t>
+  </si>
+  <si>
+    <t>用......装满......</t>
+  </si>
+  <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>去上学</t>
+  </si>
+  <si>
+    <t>去看电影</t>
+  </si>
+  <si>
+    <t>去睡觉</t>
+  </si>
+  <si>
+    <t>去上班</t>
+  </si>
+  <si>
+    <t>去购物</t>
+  </si>
+  <si>
+    <t>去远足</t>
+  </si>
+  <si>
+    <t>头痛</t>
+  </si>
+  <si>
+    <t>看一看</t>
+  </si>
+  <si>
+    <t>谈一谈</t>
+  </si>
+  <si>
+    <t>感冒</t>
+  </si>
+  <si>
+    <t>请别人做某事</t>
+  </si>
+  <si>
+    <t>不得不</t>
+  </si>
+  <si>
+    <t>几乎不</t>
+  </si>
+  <si>
+    <t>做某事有困难</t>
+  </si>
+  <si>
+    <t>怎么样?</t>
+  </si>
+  <si>
+    <t>最好做某事</t>
+  </si>
+  <si>
+    <t>听说</t>
+  </si>
+  <si>
+    <t>听说关于......</t>
+  </si>
+  <si>
+    <t>收到某人的来信</t>
+  </si>
+  <si>
+    <t>给你</t>
+  </si>
+  <si>
+    <t>生日快乐</t>
+  </si>
+  <si>
+    <t>寄宿家庭</t>
+  </si>
+  <si>
+    <t>多远</t>
+  </si>
+  <si>
+    <t>多长时间</t>
+  </si>
+  <si>
+    <t>多久以后</t>
+  </si>
+  <si>
+    <t>多久一次</t>
+  </si>
+  <si>
+    <t>多少</t>
+  </si>
+  <si>
+    <t>多少钱，多少</t>
+  </si>
+  <si>
+    <t>多大</t>
+  </si>
+  <si>
+    <t>没关系</t>
+  </si>
+  <si>
+    <t>保持健康</t>
+  </si>
+  <si>
+    <t>以后，过后</t>
+  </si>
+  <si>
+    <t>向---学习</t>
+  </si>
+  <si>
+    <t>使某人失望或沮丧</t>
+  </si>
+  <si>
+    <t>偶尔，不时</t>
+  </si>
+  <si>
+    <t>动身去某地</t>
+  </si>
+  <si>
+    <t>不到，少于</t>
+  </si>
+  <si>
+    <t>听......</t>
+  </si>
+  <si>
+    <t>紧接着，靠近</t>
+  </si>
+  <si>
+    <t>不再，再也不</t>
+  </si>
+  <si>
+    <t>禁止谈话</t>
+  </si>
+  <si>
+    <t>多于，超过</t>
+  </si>
+  <si>
+    <t>一点也不</t>
+  </si>
+  <si>
+    <t>不再，已不</t>
+  </si>
+  <si>
+    <t>一点也不，根本不</t>
+  </si>
+  <si>
+    <t>过时</t>
+  </si>
+  <si>
+    <t>踢足球</t>
+  </si>
+  <si>
+    <t>当然</t>
+  </si>
+  <si>
+    <t>名胜古迹</t>
+  </si>
+  <si>
+    <t>相当好</t>
+  </si>
+  <si>
+    <t>看电视</t>
+  </si>
+  <si>
+    <t>做运动</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>阻止某人做某事</t>
+  </si>
+  <si>
+    <t>相当多，不少</t>
+  </si>
+  <si>
+    <t>握手</t>
+  </si>
+  <si>
+    <t>而不，非</t>
+  </si>
+  <si>
+    <t>立刻，马上</t>
+  </si>
+  <si>
+    <t>逃走</t>
+  </si>
+  <si>
+    <t>把......看作......</t>
+  </si>
+  <si>
+    <t>骑自行车</t>
+  </si>
+  <si>
+    <t>睡过头，起得晚</t>
+  </si>
+  <si>
+    <t>为什么不......?</t>
+  </si>
+  <si>
+    <t>到目前为止</t>
+  </si>
+  <si>
+    <t>合某人的意，对某人合适</t>
+  </si>
+  <si>
+    <t>访谈节目</t>
+  </si>
+  <si>
+    <t>把......翻译成......</t>
+  </si>
+  <si>
+    <t>尽力做......</t>
+  </si>
+  <si>
+    <t>过去常常</t>
+  </si>
+  <si>
+    <t>紧张的</t>
+  </si>
+  <si>
+    <t>与...一样</t>
+  </si>
+  <si>
+    <t>四分之三</t>
+  </si>
+  <si>
+    <t>后天</t>
+  </si>
+  <si>
+    <t>排队等候</t>
+  </si>
+  <si>
+    <t>怎么了?</t>
+  </si>
+  <si>
+    <t>休息两天</t>
   </si>
 </sst>
 </file>
@@ -7234,15 +8793,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79513F-1D2D-4716-AC1F-6A89A9FAC8EC}">
-  <dimension ref="A1:F760"/>
+  <dimension ref="A1:F938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F760"/>
+    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
+      <selection activeCell="C920" sqref="C920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
@@ -22091,7 +23650,7 @@
         <v>1</v>
       </c>
       <c r="F707" t="str">
-        <f t="shared" ref="F707:F760" si="11">"&lt;WordItem Word=""" &amp; A707 &amp; """ Mean=""" &amp; B707 &amp; """ Sentence=""" &amp; C707 &amp; """ Weight=""" &amp; D707 &amp; """ Skip=""" &amp; LOWER(E707) &amp; """ /&gt;"</f>
+        <f t="shared" ref="F707:F770" si="11">"&lt;WordItem Word=""" &amp; A707 &amp; """ Mean=""" &amp; B707 &amp; """ Sentence=""" &amp; C707 &amp; """ Weight=""" &amp; D707 &amp; """ Skip=""" &amp; LOWER(E707) &amp; """ /&gt;"</f>
         <v>&lt;WordItem Word="way" Mean="n. 路，路线，方式，手段" Sentence="Is this the way out?" Weight="10" Skip="true" /&gt;</v>
       </c>
     </row>
@@ -23206,6 +24765,4120 @@
       <c r="F760" t="str">
         <f t="shared" si="11"/>
         <v>&lt;WordItem Word="explore" Mean="v. 在…探险; 探讨; 勘探; 摸索" Sentence="As soon as they arrived in the town they went out to explore." Weight="12" Skip="true" /&gt;</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D761">
+        <v>15</v>
+      </c>
+      <c r="E761" t="b">
+        <v>0</v>
+      </c>
+      <c r="F761" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="after all" Mean="毕竟，终究" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B762" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D762">
+        <v>15</v>
+      </c>
+      <c r="E762" t="b">
+        <v>0</v>
+      </c>
+      <c r="F762" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="according to" Mean="根据，按照，据......所说" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D763">
+        <v>15</v>
+      </c>
+      <c r="E763" t="b">
+        <v>0</v>
+      </c>
+      <c r="F763" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="because of" Mean="因为，由于" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D764">
+        <v>15</v>
+      </c>
+      <c r="E764" t="b">
+        <v>0</v>
+      </c>
+      <c r="F764" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="as for" Mean="至于" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D765">
+        <v>15</v>
+      </c>
+      <c r="E765" t="b">
+        <v>0</v>
+      </c>
+      <c r="F765" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="by mistake" Mean="错误地" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D766">
+        <v>15</v>
+      </c>
+      <c r="E766" t="b">
+        <v>0</v>
+      </c>
+      <c r="F766" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="by accident" Mean="偶然地，意外地" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D767">
+        <v>15</v>
+      </c>
+      <c r="E767" t="b">
+        <v>0</v>
+      </c>
+      <c r="F767" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="for example" Mean="例如" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D768">
+        <v>15</v>
+      </c>
+      <c r="E768" t="b">
+        <v>0</v>
+      </c>
+      <c r="F768" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="for instance" Mean="例如" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D769">
+        <v>15</v>
+      </c>
+      <c r="E769" t="b">
+        <v>0</v>
+      </c>
+      <c r="F769" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="instead of" Mean="代替，而不是" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D770">
+        <v>15</v>
+      </c>
+      <c r="E770" t="b">
+        <v>0</v>
+      </c>
+      <c r="F770" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;WordItem Word="thanks to" Mean="幸亏，由于，因为" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D771">
+        <v>15</v>
+      </c>
+      <c r="E771" t="b">
+        <v>0</v>
+      </c>
+      <c r="F771" t="str">
+        <f t="shared" ref="F771:F834" si="12">"&lt;WordItem Word=""" &amp; A771 &amp; """ Mean=""" &amp; B771 &amp; """ Sentence=""" &amp; C771 &amp; """ Weight=""" &amp; D771 &amp; """ Skip=""" &amp; LOWER(E771) &amp; """ /&gt;"</f>
+        <v>&lt;WordItem Word="to be honest" Mean="老实说，说实在的" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D772">
+        <v>15</v>
+      </c>
+      <c r="E772" t="b">
+        <v>0</v>
+      </c>
+      <c r="F772" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="to one's surprised" Mean="令某人惊奇的是......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D773">
+        <v>15</v>
+      </c>
+      <c r="E773" t="b">
+        <v>0</v>
+      </c>
+      <c r="F773" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="to start with" Mean="首先" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B774" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D774">
+        <v>15</v>
+      </c>
+      <c r="E774" t="b">
+        <v>0</v>
+      </c>
+      <c r="F774" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="thanks for" Mean="为......而感谢......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D775">
+        <v>15</v>
+      </c>
+      <c r="E775" t="b">
+        <v>0</v>
+      </c>
+      <c r="F775" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="both...and" Mean="两个都，既......又......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D776">
+        <v>15</v>
+      </c>
+      <c r="E776" t="b">
+        <v>0</v>
+      </c>
+      <c r="F776" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="either...or" Mean="或者......或者......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D777">
+        <v>15</v>
+      </c>
+      <c r="E777" t="b">
+        <v>0</v>
+      </c>
+      <c r="F777" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="neither...nor" Mean="既不......也不......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D778">
+        <v>15</v>
+      </c>
+      <c r="E778" t="b">
+        <v>0</v>
+      </c>
+      <c r="F778" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="not only...but also" Mean="不但......而且......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D779">
+        <v>15</v>
+      </c>
+      <c r="E779" t="b">
+        <v>0</v>
+      </c>
+      <c r="F779" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="not...until" Mean="直到......才......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D780">
+        <v>15</v>
+      </c>
+      <c r="E780" t="b">
+        <v>0</v>
+      </c>
+      <c r="F780" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="so...that" Mean="如此......以至于......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D781">
+        <v>15</v>
+      </c>
+      <c r="E781" t="b">
+        <v>0</v>
+      </c>
+      <c r="F781" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="as soon as" Mean="一......就......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D782">
+        <v>15</v>
+      </c>
+      <c r="E782" t="b">
+        <v>0</v>
+      </c>
+      <c r="F782" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="even though" Mean="即使，尽管" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D783">
+        <v>15</v>
+      </c>
+      <c r="E783" t="b">
+        <v>0</v>
+      </c>
+      <c r="F783" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="would rather...than..." Mean="宁愿......而不......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D784">
+        <v>15</v>
+      </c>
+      <c r="E784" t="b">
+        <v>0</v>
+      </c>
+      <c r="F784" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="what if" Mean="如果......将会怎么样" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D785">
+        <v>15</v>
+      </c>
+      <c r="E785" t="b">
+        <v>0</v>
+      </c>
+      <c r="F785" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="too...to" Mean="太......而不能" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D786">
+        <v>15</v>
+      </c>
+      <c r="E786" t="b">
+        <v>0</v>
+      </c>
+      <c r="F786" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="so that" Mean="以便，结果，目的是" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D787">
+        <v>15</v>
+      </c>
+      <c r="E787" t="b">
+        <v>0</v>
+      </c>
+      <c r="F787" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="teach oneself" Mean="自学" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D788">
+        <v>15</v>
+      </c>
+      <c r="E788" t="b">
+        <v>0</v>
+      </c>
+      <c r="F788" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="enjoy oneself" Mean="玩得开心" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D789">
+        <v>15</v>
+      </c>
+      <c r="E789" t="b">
+        <v>0</v>
+      </c>
+      <c r="F789" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="by oneself" Mean="独自" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D790">
+        <v>15</v>
+      </c>
+      <c r="E790" t="b">
+        <v>0</v>
+      </c>
+      <c r="F790" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="help oneself to" Mean="随便吃......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D791">
+        <v>15</v>
+      </c>
+      <c r="E791" t="b">
+        <v>0</v>
+      </c>
+      <c r="F791" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="learn...by oneself" Mean="自学" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D792">
+        <v>15</v>
+      </c>
+      <c r="E792" t="b">
+        <v>0</v>
+      </c>
+      <c r="F792" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="hurt oneself" Mean="伤害自己" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D793">
+        <v>15</v>
+      </c>
+      <c r="E793" t="b">
+        <v>0</v>
+      </c>
+      <c r="F793" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="by the way" Mean="顺便说，顺便问一下" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D794">
+        <v>15</v>
+      </c>
+      <c r="E794" t="b">
+        <v>0</v>
+      </c>
+      <c r="F794" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="in the way" Mean="碍事的，挡道的" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D795">
+        <v>15</v>
+      </c>
+      <c r="E795" t="b">
+        <v>0</v>
+      </c>
+      <c r="F795" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="on one's way" Mean="在去—的路上" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D796">
+        <v>15</v>
+      </c>
+      <c r="E796" t="b">
+        <v>0</v>
+      </c>
+      <c r="F796" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="in this way" Mean="这样" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D797">
+        <v>15</v>
+      </c>
+      <c r="E797" t="b">
+        <v>0</v>
+      </c>
+      <c r="F797" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="in some ways" Mean="在某种程度上，在某些方面" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D798">
+        <v>15</v>
+      </c>
+      <c r="E798" t="b">
+        <v>0</v>
+      </c>
+      <c r="F798" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="the way to" Mean="去某地的路" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D799">
+        <v>15</v>
+      </c>
+      <c r="E799" t="b">
+        <v>0</v>
+      </c>
+      <c r="F799" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="pay attention to" Mean="注意" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D800">
+        <v>15</v>
+      </c>
+      <c r="E800" t="b">
+        <v>0</v>
+      </c>
+      <c r="F800" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="look forward to" Mean="期盼，期待" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D801">
+        <v>15</v>
+      </c>
+      <c r="E801" t="b">
+        <v>0</v>
+      </c>
+      <c r="F801" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="hold on to" Mean="继续，坚持" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D802">
+        <v>15</v>
+      </c>
+      <c r="E802" t="b">
+        <v>0</v>
+      </c>
+      <c r="F802" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="be/get used to" Mean="习惯于" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D803">
+        <v>15</v>
+      </c>
+      <c r="E803" t="b">
+        <v>0</v>
+      </c>
+      <c r="F803" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="make a contribution to" Mean="为......做贡献" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D804">
+        <v>15</v>
+      </c>
+      <c r="E804" t="b">
+        <v>0</v>
+      </c>
+      <c r="F804" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="prefer...to..." Mean="与......相比更喜欢......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D805">
+        <v>15</v>
+      </c>
+      <c r="E805" t="b">
+        <v>0</v>
+      </c>
+      <c r="F805" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="a few" Mean="一些， 很少" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D806">
+        <v>15</v>
+      </c>
+      <c r="E806" t="b">
+        <v>0</v>
+      </c>
+      <c r="F806" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="a little" Mean="稍微，一点儿" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D807">
+        <v>15</v>
+      </c>
+      <c r="E807" t="b">
+        <v>0</v>
+      </c>
+      <c r="F807" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="a bit" Mean="一点儿" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B808" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D808">
+        <v>15</v>
+      </c>
+      <c r="E808" t="b">
+        <v>0</v>
+      </c>
+      <c r="F808" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="across from" Mean="在......对面" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D809">
+        <v>15</v>
+      </c>
+      <c r="E809" t="b">
+        <v>0</v>
+      </c>
+      <c r="F809" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="all the time" Mean="始终，一直" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B810" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D810">
+        <v>15</v>
+      </c>
+      <c r="E810" t="b">
+        <v>0</v>
+      </c>
+      <c r="F810" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="all year round" Mean="一年到头" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B811" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D811">
+        <v>15</v>
+      </c>
+      <c r="E811" t="b">
+        <v>0</v>
+      </c>
+      <c r="F811" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="all over" Mean="遍及，整个" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B812" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D812">
+        <v>15</v>
+      </c>
+      <c r="E812" t="b">
+        <v>0</v>
+      </c>
+      <c r="F812" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="around the world" Mean="全世界" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D813">
+        <v>15</v>
+      </c>
+      <c r="E813" t="b">
+        <v>0</v>
+      </c>
+      <c r="F813" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="as...as possible" Mean="尽可能" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B814" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D814">
+        <v>15</v>
+      </c>
+      <c r="E814" t="b">
+        <v>0</v>
+      </c>
+      <c r="F814" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="as...as" Mean="和......一样" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B815" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D815">
+        <v>15</v>
+      </c>
+      <c r="E815" t="b">
+        <v>0</v>
+      </c>
+      <c r="F815" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="add...to" Mean="把......加到—上" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B816" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D816">
+        <v>15</v>
+      </c>
+      <c r="E816" t="b">
+        <v>0</v>
+      </c>
+      <c r="F816" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="be afraid to" Mean="害怕做某事" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D817">
+        <v>15</v>
+      </c>
+      <c r="E817" t="b">
+        <v>0</v>
+      </c>
+      <c r="F817" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="be in agreement" Mean="与...意见一致" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D818">
+        <v>15</v>
+      </c>
+      <c r="E818" t="b">
+        <v>0</v>
+      </c>
+      <c r="F818" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="be willing to" Mean="愿意做某事" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D819">
+        <v>15</v>
+      </c>
+      <c r="E819" t="b">
+        <v>0</v>
+      </c>
+      <c r="F819" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="just now" Mean="刚才" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D820">
+        <v>15</v>
+      </c>
+      <c r="E820" t="b">
+        <v>0</v>
+      </c>
+      <c r="F820" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="break down" Mean="停止运转，出故障" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D821">
+        <v>15</v>
+      </c>
+      <c r="E821" t="b">
+        <v>0</v>
+      </c>
+      <c r="F821" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="break off" Mean="突然中止，中断" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D822">
+        <v>15</v>
+      </c>
+      <c r="E822" t="b">
+        <v>0</v>
+      </c>
+      <c r="F822" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="break the rule" Mean="违反规则" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D823">
+        <v>15</v>
+      </c>
+      <c r="E823" t="b">
+        <v>0</v>
+      </c>
+      <c r="F823" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="break out" Mean="爆发" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D824">
+        <v>15</v>
+      </c>
+      <c r="E824" t="b">
+        <v>0</v>
+      </c>
+      <c r="F824" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="be able to" Mean="能，会" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D825">
+        <v>15</v>
+      </c>
+      <c r="E825" t="b">
+        <v>0</v>
+      </c>
+      <c r="F825" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="be supposed to" Mean="被期望或被要求......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D826">
+        <v>15</v>
+      </c>
+      <c r="E826" t="b">
+        <v>0</v>
+      </c>
+      <c r="F826" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="between...and" Mean="在......之间" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D827">
+        <v>15</v>
+      </c>
+      <c r="E827" t="b">
+        <v>0</v>
+      </c>
+      <c r="F827" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="belong to" Mean="属于" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D828">
+        <v>15</v>
+      </c>
+      <c r="E828" t="b">
+        <v>0</v>
+      </c>
+      <c r="F828" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="cut in line" Mean="插队" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D829">
+        <v>15</v>
+      </c>
+      <c r="E829" t="b">
+        <v>0</v>
+      </c>
+      <c r="F829" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="can't stop doing" Mean="情不自禁做某事" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D830">
+        <v>15</v>
+      </c>
+      <c r="E830" t="b">
+        <v>0</v>
+      </c>
+      <c r="F830" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="next to" Mean="紧接着，相邻" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D831">
+        <v>15</v>
+      </c>
+      <c r="E831" t="b">
+        <v>0</v>
+      </c>
+      <c r="F831" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="day off" Mean="休息日，不工作" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D832">
+        <v>15</v>
+      </c>
+      <c r="E832" t="b">
+        <v>0</v>
+      </c>
+      <c r="F832" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="do chores" Mean="做家务" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D833">
+        <v>15</v>
+      </c>
+      <c r="E833" t="b">
+        <v>0</v>
+      </c>
+      <c r="F833" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="do the dishes" Mean="洗盘子" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D834">
+        <v>15</v>
+      </c>
+      <c r="E834" t="b">
+        <v>0</v>
+      </c>
+      <c r="F834" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;WordItem Word="do the laundry" Mean="洗衣服" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D835">
+        <v>15</v>
+      </c>
+      <c r="E835" t="b">
+        <v>0</v>
+      </c>
+      <c r="F835" t="str">
+        <f t="shared" ref="F835:F898" si="13">"&lt;WordItem Word=""" &amp; A835 &amp; """ Mean=""" &amp; B835 &amp; """ Sentence=""" &amp; C835 &amp; """ Weight=""" &amp; D835 &amp; """ Skip=""" &amp; LOWER(E835) &amp; """ /&gt;"</f>
+        <v>&lt;WordItem Word="do some reading" Mean="看书" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D836">
+        <v>15</v>
+      </c>
+      <c r="E836" t="b">
+        <v>0</v>
+      </c>
+      <c r="F836" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="do homework" Mean="做作业" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D837">
+        <v>15</v>
+      </c>
+      <c r="E837" t="b">
+        <v>0</v>
+      </c>
+      <c r="F837" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="dream of/about" Mean="梦想，向往" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D838">
+        <v>15</v>
+      </c>
+      <c r="E838" t="b">
+        <v>0</v>
+      </c>
+      <c r="F838" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="drop by" Mean="顺便或偶然拜访" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D839">
+        <v>15</v>
+      </c>
+      <c r="E839" t="b">
+        <v>0</v>
+      </c>
+      <c r="F839" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="divide...into" Mean="把......分成......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D840">
+        <v>15</v>
+      </c>
+      <c r="E840" t="b">
+        <v>0</v>
+      </c>
+      <c r="F840" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="each other" Mean="互相，彼此" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D841">
+        <v>15</v>
+      </c>
+      <c r="E841" t="b">
+        <v>0</v>
+      </c>
+      <c r="F841" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="excuse me" Mean="请原谅" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D842">
+        <v>15</v>
+      </c>
+      <c r="E842" t="b">
+        <v>0</v>
+      </c>
+      <c r="F842" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go by" Mean="（指时间） 过去，消逝" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D843">
+        <v>15</v>
+      </c>
+      <c r="E843" t="b">
+        <v>0</v>
+      </c>
+      <c r="F843" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="knock into" Mean="与......相撞" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D844">
+        <v>15</v>
+      </c>
+      <c r="E844" t="b">
+        <v>0</v>
+      </c>
+      <c r="F844" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="feel like doing" Mean="想要做某事" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D845">
+        <v>15</v>
+      </c>
+      <c r="E845" t="b">
+        <v>0</v>
+      </c>
+      <c r="F845" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="family name" Mean="姓氏" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D846">
+        <v>15</v>
+      </c>
+      <c r="E846" t="b">
+        <v>0</v>
+      </c>
+      <c r="F846" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="first name" Mean="名字" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D847">
+        <v>15</v>
+      </c>
+      <c r="E847" t="b">
+        <v>0</v>
+      </c>
+      <c r="F847" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="fall asleep" Mean="入睡" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D848">
+        <v>15</v>
+      </c>
+      <c r="E848" t="b">
+        <v>0</v>
+      </c>
+      <c r="F848" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="fall in love with" Mean="爱上......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D849">
+        <v>15</v>
+      </c>
+      <c r="E849" t="b">
+        <v>0</v>
+      </c>
+      <c r="F849" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="fall into" Mean="落入，陷入" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D850">
+        <v>15</v>
+      </c>
+      <c r="E850" t="b">
+        <v>0</v>
+      </c>
+      <c r="F850" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="fall ill" Mean="病倒，患病" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D851">
+        <v>15</v>
+      </c>
+      <c r="E851" t="b">
+        <v>0</v>
+      </c>
+      <c r="F851" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="first of all" Mean="首先" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D852">
+        <v>15</v>
+      </c>
+      <c r="E852" t="b">
+        <v>0</v>
+      </c>
+      <c r="F852" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="fill...with" Mean="用......装满......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D853">
+        <v>15</v>
+      </c>
+      <c r="E853" t="b">
+        <v>0</v>
+      </c>
+      <c r="F853" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go to sleep" Mean="入睡" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D854">
+        <v>15</v>
+      </c>
+      <c r="E854" t="b">
+        <v>0</v>
+      </c>
+      <c r="F854" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go home" Mean="回家" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D855">
+        <v>15</v>
+      </c>
+      <c r="E855" t="b">
+        <v>0</v>
+      </c>
+      <c r="F855" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go to school" Mean="去上学" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B856" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D856">
+        <v>15</v>
+      </c>
+      <c r="E856" t="b">
+        <v>0</v>
+      </c>
+      <c r="F856" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go to a movie" Mean="去看电影" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B857" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D857">
+        <v>15</v>
+      </c>
+      <c r="E857" t="b">
+        <v>0</v>
+      </c>
+      <c r="F857" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go to bed" Mean="去睡觉" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B858" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D858">
+        <v>15</v>
+      </c>
+      <c r="E858" t="b">
+        <v>0</v>
+      </c>
+      <c r="F858" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go to work" Mean="去上班" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D859">
+        <v>15</v>
+      </c>
+      <c r="E859" t="b">
+        <v>0</v>
+      </c>
+      <c r="F859" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go shopping" Mean="去购物" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D860">
+        <v>15</v>
+      </c>
+      <c r="E860" t="b">
+        <v>0</v>
+      </c>
+      <c r="F860" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="go hiking" Mean="去远足" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D861">
+        <v>15</v>
+      </c>
+      <c r="E861" t="b">
+        <v>0</v>
+      </c>
+      <c r="F861" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have a headache" Mean="头痛" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D862">
+        <v>15</v>
+      </c>
+      <c r="E862" t="b">
+        <v>0</v>
+      </c>
+      <c r="F862" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have a look" Mean="看一看" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D863">
+        <v>15</v>
+      </c>
+      <c r="E863" t="b">
+        <v>0</v>
+      </c>
+      <c r="F863" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have a talk" Mean="谈一谈" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D864">
+        <v>15</v>
+      </c>
+      <c r="E864" t="b">
+        <v>0</v>
+      </c>
+      <c r="F864" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have a cold" Mean="感冒" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D865">
+        <v>15</v>
+      </c>
+      <c r="E865" t="b">
+        <v>0</v>
+      </c>
+      <c r="F865" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have a great time" Mean="玩得开心" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D866">
+        <v>15</v>
+      </c>
+      <c r="E866" t="b">
+        <v>0</v>
+      </c>
+      <c r="F866" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have fun" Mean="玩得开心" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D867">
+        <v>15</v>
+      </c>
+      <c r="E867" t="b">
+        <v>0</v>
+      </c>
+      <c r="F867" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have/get sth done" Mean="请别人做某事" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D868">
+        <v>15</v>
+      </c>
+      <c r="E868" t="b">
+        <v>0</v>
+      </c>
+      <c r="F868" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have to" Mean="不得不" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D869">
+        <v>15</v>
+      </c>
+      <c r="E869" t="b">
+        <v>0</v>
+      </c>
+      <c r="F869" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="hardly ever" Mean="几乎不" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D870">
+        <v>15</v>
+      </c>
+      <c r="E870" t="b">
+        <v>0</v>
+      </c>
+      <c r="F870" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="have trouble in doing sth" Mean="做某事有困难" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B871" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D871">
+        <v>15</v>
+      </c>
+      <c r="E871" t="b">
+        <v>0</v>
+      </c>
+      <c r="F871" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how/what about...? ......" Mean="怎么样?" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B872" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D872">
+        <v>15</v>
+      </c>
+      <c r="E872" t="b">
+        <v>0</v>
+      </c>
+      <c r="F872" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="had better do sth" Mean="最好做某事" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D873">
+        <v>15</v>
+      </c>
+      <c r="E873" t="b">
+        <v>0</v>
+      </c>
+      <c r="F873" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="hear of" Mean="听说" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D874">
+        <v>15</v>
+      </c>
+      <c r="E874" t="b">
+        <v>0</v>
+      </c>
+      <c r="F874" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="hear about" Mean="听说关于......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D875">
+        <v>15</v>
+      </c>
+      <c r="E875" t="b">
+        <v>0</v>
+      </c>
+      <c r="F875" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="hear from" Mean="收到某人的来信" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B876" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D876">
+        <v>15</v>
+      </c>
+      <c r="E876" t="b">
+        <v>0</v>
+      </c>
+      <c r="F876" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="hold on to" Mean="继续，坚持" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D877">
+        <v>15</v>
+      </c>
+      <c r="E877" t="b">
+        <v>0</v>
+      </c>
+      <c r="F877" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="here you are" Mean="给你" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B878" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D878">
+        <v>15</v>
+      </c>
+      <c r="E878" t="b">
+        <v>0</v>
+      </c>
+      <c r="F878" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="happy birthday" Mean="生日快乐" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B879" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D879">
+        <v>15</v>
+      </c>
+      <c r="E879" t="b">
+        <v>0</v>
+      </c>
+      <c r="F879" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="host family" Mean="寄宿家庭" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B880" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D880">
+        <v>15</v>
+      </c>
+      <c r="E880" t="b">
+        <v>0</v>
+      </c>
+      <c r="F880" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how far" Mean="多远" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B881" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D881">
+        <v>15</v>
+      </c>
+      <c r="E881" t="b">
+        <v>0</v>
+      </c>
+      <c r="F881" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how long" Mean="多长时间" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B882" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D882">
+        <v>15</v>
+      </c>
+      <c r="E882" t="b">
+        <v>0</v>
+      </c>
+      <c r="F882" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how soon" Mean="多久以后" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B883" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D883">
+        <v>15</v>
+      </c>
+      <c r="E883" t="b">
+        <v>0</v>
+      </c>
+      <c r="F883" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how often" Mean="多久一次" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D884">
+        <v>15</v>
+      </c>
+      <c r="E884" t="b">
+        <v>0</v>
+      </c>
+      <c r="F884" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how many" Mean="多少" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B885" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D885">
+        <v>15</v>
+      </c>
+      <c r="E885" t="b">
+        <v>0</v>
+      </c>
+      <c r="F885" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how much" Mean="多少钱，多少" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D886">
+        <v>15</v>
+      </c>
+      <c r="E886" t="b">
+        <v>0</v>
+      </c>
+      <c r="F886" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="how old" Mean="多大" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B887" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D887">
+        <v>15</v>
+      </c>
+      <c r="E887" t="b">
+        <v>0</v>
+      </c>
+      <c r="F887" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="it doesn't matter" Mean="没关系" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B888" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D888">
+        <v>15</v>
+      </c>
+      <c r="E888" t="b">
+        <v>0</v>
+      </c>
+      <c r="F888" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="keep healthy/fit" Mean="保持健康" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B889" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D889">
+        <v>15</v>
+      </c>
+      <c r="E889" t="b">
+        <v>0</v>
+      </c>
+      <c r="F889" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="later on" Mean="以后，过后" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D890">
+        <v>15</v>
+      </c>
+      <c r="E890" t="b">
+        <v>0</v>
+      </c>
+      <c r="F890" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="learn from" Mean="向---学习" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D891">
+        <v>15</v>
+      </c>
+      <c r="E891" t="b">
+        <v>0</v>
+      </c>
+      <c r="F891" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="let sb down" Mean="使某人失望或沮丧" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D892">
+        <v>15</v>
+      </c>
+      <c r="E892" t="b">
+        <v>0</v>
+      </c>
+      <c r="F892" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="from time to time" Mean="偶尔，不时" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B893" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D893">
+        <v>15</v>
+      </c>
+      <c r="E893" t="b">
+        <v>0</v>
+      </c>
+      <c r="F893" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="leave for" Mean="动身去某地" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D894">
+        <v>15</v>
+      </c>
+      <c r="E894" t="b">
+        <v>0</v>
+      </c>
+      <c r="F894" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="less than" Mean="不到，少于" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D895">
+        <v>15</v>
+      </c>
+      <c r="E895" t="b">
+        <v>0</v>
+      </c>
+      <c r="F895" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="listen to" Mean="听......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D896">
+        <v>15</v>
+      </c>
+      <c r="E896" t="b">
+        <v>0</v>
+      </c>
+      <c r="F896" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="next to" Mean="紧接着，靠近" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D897">
+        <v>15</v>
+      </c>
+      <c r="E897" t="b">
+        <v>0</v>
+      </c>
+      <c r="F897" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="not...any more" Mean="不再，再也不" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D898">
+        <v>15</v>
+      </c>
+      <c r="E898" t="b">
+        <v>0</v>
+      </c>
+      <c r="F898" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;WordItem Word="no talking" Mean="禁止谈话" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B899" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D899">
+        <v>15</v>
+      </c>
+      <c r="E899" t="b">
+        <v>0</v>
+      </c>
+      <c r="F899" t="str">
+        <f t="shared" ref="F899:F938" si="14">"&lt;WordItem Word=""" &amp; A899 &amp; """ Mean=""" &amp; B899 &amp; """ Sentence=""" &amp; C899 &amp; """ Weight=""" &amp; D899 &amp; """ Skip=""" &amp; LOWER(E899) &amp; """ /&gt;"</f>
+        <v>&lt;WordItem Word="more than" Mean="多于，超过" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B900" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D900">
+        <v>15</v>
+      </c>
+      <c r="E900" t="b">
+        <v>0</v>
+      </c>
+      <c r="F900" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="not at all" Mean="一点也不" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B901" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D901">
+        <v>15</v>
+      </c>
+      <c r="E901" t="b">
+        <v>0</v>
+      </c>
+      <c r="F901" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="no longer" Mean="不再，已不" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D902">
+        <v>15</v>
+      </c>
+      <c r="E902" t="b">
+        <v>0</v>
+      </c>
+      <c r="F902" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="not...in the slightest" Mean="一点也不，根本不" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B903" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D903">
+        <v>15</v>
+      </c>
+      <c r="E903" t="b">
+        <v>0</v>
+      </c>
+      <c r="F903" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="out of style" Mean="过时" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D904">
+        <v>15</v>
+      </c>
+      <c r="E904" t="b">
+        <v>0</v>
+      </c>
+      <c r="F904" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="play football" Mean="踢足球" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D905">
+        <v>15</v>
+      </c>
+      <c r="E905" t="b">
+        <v>0</v>
+      </c>
+      <c r="F905" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="of course" Mean="当然" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D906">
+        <v>15</v>
+      </c>
+      <c r="E906" t="b">
+        <v>0</v>
+      </c>
+      <c r="F906" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="places of interest" Mean="名胜古迹" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D907">
+        <v>15</v>
+      </c>
+      <c r="E907" t="b">
+        <v>0</v>
+      </c>
+      <c r="F907" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="pretty well" Mean="相当好" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D908">
+        <v>15</v>
+      </c>
+      <c r="E908" t="b">
+        <v>0</v>
+      </c>
+      <c r="F908" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="watch TV" Mean="看电视" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D909">
+        <v>15</v>
+      </c>
+      <c r="E909" t="b">
+        <v>0</v>
+      </c>
+      <c r="F909" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="play sports" Mean="做运动" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D910">
+        <v>15</v>
+      </c>
+      <c r="E910" t="b">
+        <v>0</v>
+      </c>
+      <c r="F910" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="phone number" Mean="电话号码" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D911">
+        <v>15</v>
+      </c>
+      <c r="E911" t="b">
+        <v>0</v>
+      </c>
+      <c r="F911" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="prevent sb from doing sth" Mean="阻止某人做某事" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D912">
+        <v>15</v>
+      </c>
+      <c r="E912" t="b">
+        <v>0</v>
+      </c>
+      <c r="F912" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="such as" Mean="例如" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D913">
+        <v>15</v>
+      </c>
+      <c r="E913" t="b">
+        <v>0</v>
+      </c>
+      <c r="F913" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="quite a few" Mean="相当多，不少" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D914">
+        <v>15</v>
+      </c>
+      <c r="E914" t="b">
+        <v>0</v>
+      </c>
+      <c r="F914" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="shake hands" Mean="握手" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B915" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D915">
+        <v>15</v>
+      </c>
+      <c r="E915" t="b">
+        <v>0</v>
+      </c>
+      <c r="F915" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="rather than" Mean="而不，非" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B916" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D916">
+        <v>15</v>
+      </c>
+      <c r="E916" t="b">
+        <v>0</v>
+      </c>
+      <c r="F916" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="right away/now" Mean="立刻，马上" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B917" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D917">
+        <v>15</v>
+      </c>
+      <c r="E917" t="b">
+        <v>0</v>
+      </c>
+      <c r="F917" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="run away" Mean="逃走" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B918" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D918">
+        <v>15</v>
+      </c>
+      <c r="E918" t="b">
+        <v>0</v>
+      </c>
+      <c r="F918" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="be in agreement" Mean="意见一致" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B919" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D919">
+        <v>15</v>
+      </c>
+      <c r="E919" t="b">
+        <v>0</v>
+      </c>
+      <c r="F919" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="regard...as..." Mean="把......看作......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B920" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D920">
+        <v>15</v>
+      </c>
+      <c r="E920" t="b">
+        <v>0</v>
+      </c>
+      <c r="F920" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="ride a bike" Mean="骑自行车" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B921" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D921">
+        <v>15</v>
+      </c>
+      <c r="E921" t="b">
+        <v>0</v>
+      </c>
+      <c r="F921" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="sleep late" Mean="睡过头，起得晚" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B922" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D922">
+        <v>15</v>
+      </c>
+      <c r="E922" t="b">
+        <v>0</v>
+      </c>
+      <c r="F922" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="Why not...?" Mean="为什么不......?" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B923" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D923">
+        <v>15</v>
+      </c>
+      <c r="E923" t="b">
+        <v>0</v>
+      </c>
+      <c r="F923" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="so far" Mean="到目前为止" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B924" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D924">
+        <v>15</v>
+      </c>
+      <c r="E924" t="b">
+        <v>0</v>
+      </c>
+      <c r="F924" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="suit sb fine" Mean="合某人的意，对某人合适" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B925" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D925">
+        <v>15</v>
+      </c>
+      <c r="E925" t="b">
+        <v>0</v>
+      </c>
+      <c r="F925" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="talk show" Mean="访谈节目" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B926" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D926">
+        <v>15</v>
+      </c>
+      <c r="E926" t="b">
+        <v>0</v>
+      </c>
+      <c r="F926" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="translate...into" Mean="把......翻译成......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B927" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D927">
+        <v>15</v>
+      </c>
+      <c r="E927" t="b">
+        <v>0</v>
+      </c>
+      <c r="F927" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="try one's best" Mean="尽力做......" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B928" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D928">
+        <v>15</v>
+      </c>
+      <c r="E928" t="b">
+        <v>0</v>
+      </c>
+      <c r="F928" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="used to" Mean="过去常常" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B929" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D929">
+        <v>15</v>
+      </c>
+      <c r="E929" t="b">
+        <v>0</v>
+      </c>
+      <c r="F929" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="stressed out" Mean="紧张的" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D930">
+        <v>15</v>
+      </c>
+      <c r="E930" t="b">
+        <v>0</v>
+      </c>
+      <c r="F930" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="the same as" Mean="与...一样" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D931">
+        <v>15</v>
+      </c>
+      <c r="E931" t="b">
+        <v>0</v>
+      </c>
+      <c r="F931" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="three quarters" Mean="四分之三" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D932">
+        <v>15</v>
+      </c>
+      <c r="E932" t="b">
+        <v>0</v>
+      </c>
+      <c r="F932" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="the day after tomorrow" Mean="后天" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D933">
+        <v>15</v>
+      </c>
+      <c r="E933" t="b">
+        <v>0</v>
+      </c>
+      <c r="F933" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="wait in line" Mean="排队等候" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D934">
+        <v>15</v>
+      </c>
+      <c r="E934" t="b">
+        <v>0</v>
+      </c>
+      <c r="F934" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="what about...? ......" Mean="怎么样?" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D935">
+        <v>15</v>
+      </c>
+      <c r="E935" t="b">
+        <v>0</v>
+      </c>
+      <c r="F935" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="What's the matter?" Mean="怎么了?" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B936" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D936">
+        <v>15</v>
+      </c>
+      <c r="E936" t="b">
+        <v>0</v>
+      </c>
+      <c r="F936" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="What's the problem?" Mean="怎么了?" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B937" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D937">
+        <v>15</v>
+      </c>
+      <c r="E937" t="b">
+        <v>0</v>
+      </c>
+      <c r="F937" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="What's wrong?" Mean="怎么了?" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B938" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D938">
+        <v>15</v>
+      </c>
+      <c r="E938" t="b">
+        <v>0</v>
+      </c>
+      <c r="F938" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;WordItem Word="have two days off" Mean="休息两天" Sentence="" Weight="15" Skip="false" /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A41AEFC-634E-412B-917F-8F1526FF494F}">
+  <dimension ref="A1:A178"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A178"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>2456</v>
       </c>
     </row>
   </sheetData>
